--- a/Outputs/YD/poverty_output.xlsx
+++ b/Outputs/YD/poverty_output.xlsx
@@ -978,7 +978,7 @@
         <v>8.36339768589</v>
       </c>
       <c r="K2">
-        <v>0.03868765770559469</v>
+        <v>0.1787664717130057</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1013,7 +1013,7 @@
         <v>1.63610321325</v>
       </c>
       <c r="K3">
-        <v>0.09265049005878066</v>
+        <v>0.3718620616343101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1027,7 +1027,7 @@
         <v>0.544257217114</v>
       </c>
       <c r="K4">
-        <v>0.0220621517649358</v>
+        <v>0.3055167623440532</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1041,7 +1041,7 @@
         <v>2.25511844398</v>
       </c>
       <c r="K5">
-        <v>0.09265049005878066</v>
+        <v>0.3718620616343101</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1055,7 +1055,7 @@
         <v>2.99310543981</v>
       </c>
       <c r="K6">
-        <v>0.1476045876523794</v>
+        <v>0.4118535911555168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1069,7 +1069,7 @@
         <v>2.63932228641</v>
       </c>
       <c r="K7">
-        <v>0.2287974406337892</v>
+        <v>0.1437748477761494</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1083,7 +1083,7 @@
         <v>0.8249511382350001</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1371144470305563</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1097,7 +1097,7 @@
         <v>0.437329883816</v>
       </c>
       <c r="K9">
-        <v>0.09265049005878066</v>
+        <v>0.3718620616343101</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1132,7 +1132,7 @@
         <v>1.06708313708</v>
       </c>
       <c r="K10">
-        <v>0.1642300935930386</v>
+        <v>0.2851033005244694</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1167,7 +1167,7 @@
         <v>1.95209439769</v>
       </c>
       <c r="K11">
-        <v>0.09265049005878066</v>
+        <v>0.3718620616343101</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1202,7 +1202,7 @@
         <v>1.27154743665</v>
       </c>
       <c r="K12">
-        <v>0.1259015019400984</v>
+        <v>0.118361480372215</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1237,7 +1237,7 @@
         <v>1.49326136758</v>
       </c>
       <c r="K13">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1272,7 +1272,7 @@
         <v>2.05987749639</v>
       </c>
       <c r="K14">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1307,7 +1307,7 @@
         <v>1.21169629214</v>
       </c>
       <c r="K15">
-        <v>0.1476045876523794</v>
+        <v>0.4118535911555168</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1342,7 +1342,7 @@
         <v>1.23092827082</v>
       </c>
       <c r="K16">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1374,7 +1374,7 @@
         <v>0.427418880668</v>
       </c>
       <c r="K17">
-        <v>0.09265049005878066</v>
+        <v>0.3718620616343101</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1409,7 +1409,7 @@
         <v>2.13220057407</v>
       </c>
       <c r="K18">
-        <v>0.1321715272618893</v>
+        <v>0.2969909712107544</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1444,7 +1444,7 @@
         <v>1.98960886837</v>
       </c>
       <c r="K19">
-        <v>0.09265049005878066</v>
+        <v>0.3718620616343101</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1479,7 +1479,7 @@
         <v>1.12941321348</v>
       </c>
       <c r="K20">
-        <v>0.1642300935930386</v>
+        <v>0.2851033005244694</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1514,7 +1514,7 @@
         <v>0.816891359512</v>
       </c>
       <c r="K21">
-        <v>0.1384147800006525</v>
+        <v>0.1072559922853376</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1549,7 +1549,7 @@
         <v>1.92898989424</v>
       </c>
       <c r="K22">
-        <v>0.1476045876523794</v>
+        <v>0.4118535911555168</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1584,7 +1584,7 @@
         <v>0.839620944801</v>
       </c>
       <c r="K23">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1619,7 +1619,7 @@
         <v>0.913149329114</v>
       </c>
       <c r="K24">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1654,7 +1654,7 @@
         <v>1.00211526894</v>
       </c>
       <c r="K25">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1668,7 +1668,7 @@
         <v>0.163563076921</v>
       </c>
       <c r="K26">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1682,7 +1682,7 @@
         <v>0.06113773866840001</v>
       </c>
       <c r="K27">
-        <v>0.1509280580612067</v>
+        <v>0.09615050419846015</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1717,7 +1717,7 @@
         <v>1.37461293692</v>
       </c>
       <c r="K28">
-        <v>0.1384147800006525</v>
+        <v>0.1072559922853376</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1731,7 +1731,7 @@
         <v>0.07189557852089999</v>
       </c>
       <c r="K29">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1766,7 +1766,7 @@
         <v>0.638653055988</v>
       </c>
       <c r="K30">
-        <v>0.1767433716535926</v>
+        <v>0.2739978124375917</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1801,7 +1801,7 @@
         <v>1.09157805082</v>
       </c>
       <c r="K31">
-        <v>0.1509280580612067</v>
+        <v>0.09615050419846015</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1836,7 +1836,7 @@
         <v>0.267963462789</v>
       </c>
       <c r="K32">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1850,7 +1850,7 @@
         <v>0.285420674536</v>
       </c>
       <c r="K33">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1882,7 +1882,7 @@
         <v>0.373649014611</v>
       </c>
       <c r="K34">
-        <v>0.1296134992134843</v>
+        <v>0.24952453891451</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1896,7 +1896,7 @@
         <v>0.056328213486</v>
       </c>
       <c r="K35">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1910,7 +1910,7 @@
         <v>0.269853157154</v>
       </c>
       <c r="K36">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1945,7 +1945,7 @@
         <v>0.264194119805</v>
       </c>
       <c r="K37">
-        <v>0.2025586852459784</v>
+        <v>0.4518451206767235</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1980,7 +1980,7 @@
         <v>2.10348248279</v>
       </c>
       <c r="K38">
-        <v>0.1296134992134843</v>
+        <v>0.24952453891451</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2015,7 +2015,7 @@
         <v>2.38708725473</v>
       </c>
       <c r="K39">
-        <v>0.1455893556097377</v>
+        <v>0.1795210324667605</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2050,7 +2050,7 @@
         <v>0.809233788042</v>
       </c>
       <c r="K40">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2085,7 +2085,7 @@
         <v>3.8055081842</v>
       </c>
       <c r="K41">
-        <v>0.1127304598220978</v>
+        <v>0.1360359040231713</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2120,7 +2120,7 @@
         <v>0.659556387972</v>
       </c>
       <c r="K42">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2155,7 +2155,7 @@
         <v>1.33621799391</v>
       </c>
       <c r="K43">
-        <v>0.1691949054951381</v>
+        <v>0.2038535705117955</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2190,7 +2190,7 @@
         <v>1.88334736224</v>
       </c>
       <c r="K44">
-        <v>0.1243745743673816</v>
+        <v>0.1330444556519151</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2204,7 +2204,7 @@
         <v>0.492778279508</v>
       </c>
       <c r="K45">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2239,7 +2239,7 @@
         <v>0.485694420479</v>
       </c>
       <c r="K46">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2274,7 +2274,7 @@
         <v>3.96396173725</v>
       </c>
       <c r="K47">
-        <v>0.1127304598220978</v>
+        <v>0.1360359040231713</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2309,7 +2309,7 @@
         <v>0.319177329151</v>
       </c>
       <c r="K48">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2344,7 +2344,7 @@
         <v>0.329463316717</v>
       </c>
       <c r="K49">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2379,7 +2379,7 @@
         <v>2.52176716247</v>
       </c>
       <c r="K50">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2393,7 +2393,7 @@
         <v>0.537239778969</v>
       </c>
       <c r="K51">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2428,7 +2428,7 @@
         <v>0.597667574382</v>
       </c>
       <c r="K52">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2463,7 +2463,7 @@
         <v>1.32123981277</v>
       </c>
       <c r="K53">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2498,7 +2498,7 @@
         <v>2.14126312243</v>
       </c>
       <c r="K54">
-        <v>0.1110978325204691</v>
+        <v>0.1514914313786423</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2533,7 +2533,7 @@
         <v>0.854734557699</v>
       </c>
       <c r="K55">
-        <v>0.1220650330550301</v>
+        <v>0.1793802969887138</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2568,7 +2568,7 @@
         <v>1.89681560962</v>
       </c>
       <c r="K56">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2603,7 +2603,7 @@
         <v>1.77524025104</v>
       </c>
       <c r="K57">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2635,7 +2635,7 @@
         <v>0.05007584740880001</v>
       </c>
       <c r="K58">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2670,7 +2670,7 @@
         <v>3.03506637683</v>
       </c>
       <c r="K59">
-        <v>0.05521833418009409</v>
+        <v>0.04857794220571984</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2705,7 +2705,7 @@
         <v>1.27509494451</v>
       </c>
       <c r="K60">
-        <v>0.1220650330550301</v>
+        <v>0.1793802969887138</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2740,7 +2740,7 @@
         <v>0.522623481804</v>
       </c>
       <c r="K61">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2775,7 +2775,7 @@
         <v>0.125828559021</v>
       </c>
       <c r="K62">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2810,7 +2810,7 @@
         <v>0.335180186786</v>
       </c>
       <c r="K63">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2824,7 +2824,7 @@
         <v>0.0248282024769</v>
       </c>
       <c r="K64">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2859,7 +2859,7 @@
         <v>0.7999045200660001</v>
       </c>
       <c r="K65">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2894,7 +2894,7 @@
         <v>1.57127770692</v>
       </c>
       <c r="K66">
-        <v>0.1758028529514105</v>
+        <v>0.2537331991969643</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2929,7 +2929,7 @@
         <v>0.310938970859</v>
       </c>
       <c r="K67">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2943,7 +2943,7 @@
         <v>0.122908038336</v>
       </c>
       <c r="K68">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2957,7 +2957,7 @@
         <v>0.0364547482068</v>
       </c>
       <c r="K69">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2992,7 +2992,7 @@
         <v>2.06641682263</v>
       </c>
       <c r="K70">
-        <v>0.1551155776842385</v>
+        <v>0.2139224359255309</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3027,7 +3027,7 @@
         <v>0.394054830231</v>
       </c>
       <c r="K71">
-        <v>0.05666831318099052</v>
+        <v>0.04720395715229639</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3062,7 +3062,7 @@
         <v>0.991236996503</v>
       </c>
       <c r="K72">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3097,7 +3097,7 @@
         <v>0.260711785569</v>
       </c>
       <c r="K73">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3132,7 +3132,7 @@
         <v>0.316551649778</v>
       </c>
       <c r="K74">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3167,7 +3167,7 @@
         <v>0.798133596803</v>
       </c>
       <c r="K75">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3202,7 +3202,7 @@
         <v>0.434850622127</v>
       </c>
       <c r="K76">
-        <v>0.1227694024394073</v>
+        <v>0.1162882350259307</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3237,7 +3237,7 @@
         <v>1.5866900557</v>
       </c>
       <c r="K77">
-        <v>0.1227694024394073</v>
+        <v>0.1162882350259307</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3272,7 +3272,7 @@
         <v>0.252861482067</v>
       </c>
       <c r="K78">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3307,7 +3307,7 @@
         <v>0.17971801134</v>
       </c>
       <c r="K79">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3342,7 +3342,7 @@
         <v>0.268631333135</v>
       </c>
       <c r="K80">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3377,7 +3377,7 @@
         <v>0.339712062684</v>
       </c>
       <c r="K81">
-        <v>0.05376835517919766</v>
+        <v>0.04995192725914348</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3412,7 +3412,7 @@
         <v>1.4629864115</v>
       </c>
       <c r="K82">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3447,7 +3447,7 @@
         <v>0.251362767065</v>
       </c>
       <c r="K83">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3479,7 +3479,7 @@
         <v>0.393454879842</v>
       </c>
       <c r="K84">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3493,7 +3493,7 @@
         <v>0.0290076495839</v>
       </c>
       <c r="K85">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3525,7 +3525,7 @@
         <v>0.152480190531</v>
       </c>
       <c r="K86">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3560,7 +3560,7 @@
         <v>0.618859202509</v>
       </c>
       <c r="K87">
-        <v>0.05376835517919766</v>
+        <v>0.04995192725914348</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3574,7 +3574,7 @@
         <v>0.5257539935369999</v>
       </c>
       <c r="K88">
-        <v>0.05376835517919766</v>
+        <v>0.04995192725914348</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3609,7 +3609,7 @@
         <v>0.8424942164820001</v>
       </c>
       <c r="K89">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3644,7 +3644,7 @@
         <v>0.9671947255060001</v>
       </c>
       <c r="K90">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3679,7 +3679,7 @@
         <v>0.309963939739</v>
       </c>
       <c r="K91">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3714,7 +3714,7 @@
         <v>0.615969740508</v>
       </c>
       <c r="K92">
-        <v>0.171692564464998</v>
+        <v>0.2221198807871989</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3749,7 +3749,7 @@
         <v>0.439281991914</v>
       </c>
       <c r="K93">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3763,7 +3763,7 @@
         <v>0.0861914033313</v>
       </c>
       <c r="K94">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3795,7 +3795,7 @@
         <v>0.0197822001712</v>
       </c>
       <c r="K95">
-        <v>0.1874617529290697</v>
+        <v>0.311556636825131</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3830,7 +3830,7 @@
         <v>1.27686207681</v>
       </c>
       <c r="K96">
-        <v>0.2353701228366206</v>
+        <v>0.3569978202192981</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3844,7 +3844,7 @@
         <v>1.11494094903</v>
       </c>
       <c r="K97">
-        <v>0.1685234239616846</v>
+        <v>0.2261954654363044</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3858,7 +3858,7 @@
         <v>0.0842733738676</v>
       </c>
       <c r="K98">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,7 +3872,7 @@
         <v>0.0230749061187</v>
       </c>
       <c r="K99">
-        <v>0.05376835517919766</v>
+        <v>0.04995192725914348</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,7 +3907,7 @@
         <v>2.0847515263</v>
       </c>
       <c r="K100">
-        <v>0.1685234239616846</v>
+        <v>0.2261954654363044</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,7 +3942,7 @@
         <v>1.09215864053</v>
       </c>
       <c r="K101">
-        <v>0.05734296875524424</v>
+        <v>0.09334731386567698</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,7 +3977,7 @@
         <v>0.304686710978</v>
       </c>
       <c r="K102">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,7 +4012,7 @@
         <v>0.364867797363</v>
       </c>
       <c r="K103">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,7 +4047,7 @@
         <v>1.67528508982</v>
       </c>
       <c r="K104">
-        <v>0.06901453867418247</v>
+        <v>0.05814411751296536</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,7 +4079,7 @@
         <v>0.00328409608725</v>
       </c>
       <c r="K105">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,7 +4111,7 @@
         <v>0.144961733495</v>
       </c>
       <c r="K106">
-        <v>0.0994262626015311</v>
+        <v>0.186694627731354</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,7 +4146,7 @@
         <v>0.263713715735</v>
       </c>
       <c r="K107">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4181,7 +4181,7 @@
         <v>1.04023028958</v>
       </c>
       <c r="K108">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4216,7 +4216,7 @@
         <v>0.673985389867</v>
       </c>
       <c r="K109">
-        <v>0.09653171055164335</v>
+        <v>0.1466405761710098</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4251,7 +4251,7 @@
         <v>0.752001405122</v>
       </c>
       <c r="K110">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4265,7 +4265,7 @@
         <v>0.0122523107673</v>
       </c>
       <c r="K111">
-        <v>0.1227694024394073</v>
+        <v>0.1162882350259307</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4300,7 +4300,7 @@
         <v>0.350630503804</v>
       </c>
       <c r="K112">
-        <v>0.1227694024394073</v>
+        <v>0.1162882350259307</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4335,7 +4335,7 @@
         <v>0.297128413387</v>
       </c>
       <c r="K113">
-        <v>0.1227694024394073</v>
+        <v>0.1162882350259307</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4370,7 +4370,7 @@
         <v>1.75255840537</v>
       </c>
       <c r="K114">
-        <v>0.2030239475917894</v>
+        <v>0.259363619319698</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4405,7 +4405,7 @@
         <v>0.348498338909</v>
       </c>
       <c r="K115">
-        <v>0.1227694024394073</v>
+        <v>0.1162882350259307</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4416,7 +4416,7 @@
         <v>0.00118713918284</v>
       </c>
       <c r="K116">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4451,7 +4451,7 @@
         <v>0.286610931977</v>
       </c>
       <c r="K117">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4486,7 +4486,7 @@
         <v>0.8399581014749999</v>
       </c>
       <c r="K118">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4500,7 +4500,7 @@
         <v>0.423659706092</v>
       </c>
       <c r="K119">
-        <v>0.2832784927441715</v>
+        <v>0.4024390036134652</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4535,7 +4535,7 @@
         <v>0.296794297054</v>
       </c>
       <c r="K120">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4570,7 +4570,7 @@
         <v>0.802898442402</v>
       </c>
       <c r="K121">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4605,7 +4605,7 @@
         <v>0.986965615574</v>
       </c>
       <c r="K122">
-        <v>0.1379259524122427</v>
+        <v>0.1773022837337469</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4640,7 +4640,7 @@
         <v>1.12038088199</v>
       </c>
       <c r="K123">
-        <v>0.08417108864701787</v>
+        <v>0.1191581662207816</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4675,7 +4675,7 @@
         <v>0.472329201453</v>
       </c>
       <c r="K124">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4710,7 +4710,7 @@
         <v>0.420977393694</v>
       </c>
       <c r="K125">
-        <v>0.2190090838234519</v>
+        <v>0.3352596761021479</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4745,7 +4745,7 @@
         <v>0.91536197088</v>
       </c>
       <c r="K126">
-        <v>0.1530825023850781</v>
+        <v>0.2383163324415631</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4780,7 +4780,7 @@
         <v>0.46368123624</v>
       </c>
       <c r="K127">
-        <v>0.2190090838234519</v>
+        <v>0.3352596761021479</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4794,7 +4794,7 @@
         <v>0.346511986999</v>
       </c>
       <c r="K128">
-        <v>0.2190090838234519</v>
+        <v>0.3352596761021479</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4829,7 +4829,7 @@
         <v>0.329882021767</v>
       </c>
       <c r="K129">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4843,7 +4843,7 @@
         <v>0.70703530214</v>
       </c>
       <c r="K130">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4875,7 +4875,7 @@
         <v>0.186555843562</v>
       </c>
       <c r="K131">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4907,7 +4907,7 @@
         <v>0.06600663989950001</v>
       </c>
       <c r="K132">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -4939,7 +4939,7 @@
         <v>0.8801541178929999</v>
       </c>
       <c r="K133">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -4974,7 +4974,7 @@
         <v>0.378701959546</v>
       </c>
       <c r="K134">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5009,7 +5009,7 @@
         <v>0.778492718163</v>
       </c>
       <c r="K135">
-        <v>0.01525967490895762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5044,7 +5044,7 @@
         <v>3.23205600989</v>
       </c>
       <c r="K136">
-        <v>0.0973011491633085</v>
+        <v>0.05842281180508281</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5079,7 +5079,7 @@
         <v>0.775992146181</v>
       </c>
       <c r="K137">
-        <v>0.08417108864701787</v>
+        <v>0.1191581662207816</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5111,7 +5111,7 @@
         <v>0.456600792005</v>
       </c>
       <c r="K138">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5143,7 +5143,7 @@
         <v>0.4715903640519999</v>
       </c>
       <c r="K139">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5178,7 +5178,7 @@
         <v>3.53127437733</v>
       </c>
       <c r="K140">
-        <v>0.1539110886439052</v>
+        <v>0.2531983405161966</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5213,7 +5213,7 @@
         <v>0.116555359902</v>
       </c>
       <c r="K141">
-        <v>0.1530825023850781</v>
+        <v>0.2383163324415631</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5248,7 +5248,7 @@
         <v>0.8500468769490001</v>
       </c>
       <c r="K142">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5283,7 +5283,7 @@
         <v>4.426434367250001</v>
       </c>
       <c r="K143">
-        <v>0.1225211359849664</v>
+        <v>0.1977946576344465</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5297,7 +5297,7 @@
         <v>0.144827193201</v>
       </c>
       <c r="K144">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5311,7 +5311,7 @@
         <v>0.0215526897296</v>
       </c>
       <c r="K145">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5346,7 +5346,7 @@
         <v>0.661928634358</v>
       </c>
       <c r="K146">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5360,7 +5360,7 @@
         <v>0.0424469003442</v>
       </c>
       <c r="K147">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5374,7 +5374,7 @@
         <v>0.322489446473</v>
       </c>
       <c r="K148">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5409,7 +5409,7 @@
         <v>0.593059944504</v>
       </c>
       <c r="K149">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5441,7 +5441,7 @@
         <v>0.542443439681</v>
       </c>
       <c r="K150">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5476,7 +5476,7 @@
         <v>0.262660621155</v>
       </c>
       <c r="K151">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5508,7 +5508,7 @@
         <v>0.00522341244724</v>
       </c>
       <c r="K152">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5522,7 +5522,7 @@
         <v>0.392794759387</v>
       </c>
       <c r="K153">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5557,7 +5557,7 @@
         <v>0.380904411432</v>
       </c>
       <c r="K154">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5571,7 +5571,7 @@
         <v>0.00492174602803</v>
       </c>
       <c r="K155">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5606,7 +5606,7 @@
         <v>1.20729344268</v>
       </c>
       <c r="K156">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5620,7 +5620,7 @@
         <v>0.7840074921520001</v>
       </c>
       <c r="K157">
-        <v>0.1547396749027322</v>
+        <v>0.2680803485908303</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5655,7 +5655,7 @@
         <v>3.33197670393</v>
       </c>
       <c r="K158">
-        <v>0.230865922244511</v>
+        <v>0.2203443606403661</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5687,7 +5687,7 @@
         <v>1.51954009869</v>
       </c>
       <c r="K159">
-        <v>0.231694508503338</v>
+        <v>0.2352263687149996</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5722,7 +5722,7 @@
         <v>3.07134658492</v>
       </c>
       <c r="K160">
-        <v>0.6361212792123266</v>
+        <v>0.603753389786567</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5757,7 +5757,7 @@
         <v>2.4136449223</v>
       </c>
       <c r="K161">
-        <v>0.5896713117088297</v>
+        <v>0.4056300846798502</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5792,7 +5792,7 @@
         <v>2.7624047095</v>
       </c>
       <c r="K162">
-        <v>0.1793426234176594</v>
+        <v>0.1168456236101656</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5806,7 +5806,7 @@
         <v>0.229168273602</v>
       </c>
       <c r="K163">
-        <v>0.1793426234176594</v>
+        <v>0.1168456236101656</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -5820,7 +5820,7 @@
         <v>0.0150406698458</v>
       </c>
       <c r="K164">
-        <v>0.3086493421039438</v>
+        <v>0.2023723888391688</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -5834,7 +5834,7 @@
         <v>0.0453876551641</v>
       </c>
       <c r="K165">
-        <v>0.3086493421039438</v>
+        <v>0.2023723888391688</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -5848,7 +5848,7 @@
         <v>2.16162803403</v>
       </c>
       <c r="K166">
-        <v>0.2003045558443993</v>
+        <v>0.1798226858332494</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -5862,7 +5862,7 @@
         <v>0.193442394408</v>
       </c>
       <c r="K167">
-        <v>0.1793426234176594</v>
+        <v>0.1168456236101656</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -5897,7 +5897,7 @@
         <v>3.9812577525</v>
       </c>
       <c r="K168">
-        <v>0.1547148211089567</v>
+        <v>0.2468796719397054</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -5932,7 +5932,7 @@
         <v>0.27659673612</v>
       </c>
       <c r="K169">
-        <v>0.09195976958485476</v>
+        <v>0.15727298282733</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -5967,7 +5967,7 @@
         <v>2.84356927556</v>
       </c>
       <c r="K170">
-        <v>0.3800806706289159</v>
+        <v>0.6031459230884294</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6002,7 +6002,7 @@
         <v>1.05848355472</v>
       </c>
       <c r="K171">
-        <v>0.2056103988337136</v>
+        <v>0.4047188846326444</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6037,7 +6037,7 @@
         <v>0.916023690856</v>
       </c>
       <c r="K172">
-        <v>0.3192610280825725</v>
+        <v>0.6521647864379587</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6051,7 +6051,7 @@
         <v>0.334532607255</v>
       </c>
       <c r="K173">
-        <v>0.3192610280825725</v>
+        <v>0.6521647864379587</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6086,7 +6086,7 @@
         <v>0.6066585608990001</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>0.6944145457495349</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6121,7 +6121,7 @@
         <v>2.00715655047</v>
       </c>
       <c r="K175">
-        <v>0.2206118966943693</v>
+        <v>0.3962104143234701</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6156,7 +6156,7 @@
         <v>0.360681448771</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>0.6944145457495349</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6191,7 +6191,7 @@
         <v>0.810268104271</v>
       </c>
       <c r="K177">
-        <v>0.8645106071096603</v>
+        <v>0.8472072728747676</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6205,7 +6205,7 @@
         <v>0.057261428184</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>0.6944145457495349</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6240,7 +6240,7 @@
         <v>0.749732979993</v>
       </c>
       <c r="K179">
-        <v>0.2206118966943693</v>
+        <v>0.3962104143234701</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6251,7 +6251,7 @@
         <v>0.0046917223285</v>
       </c>
       <c r="K180">
-        <v>0.7290212142193211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6286,7 +6286,7 @@
         <v>1.73478238215</v>
       </c>
       <c r="K181">
-        <v>0.6169946598418288</v>
+        <v>0.6115568626528388</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6321,7 +6321,7 @@
         <v>0.6997433183409999</v>
       </c>
       <c r="K182">
-        <v>0.7290212142193211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6335,7 +6335,7 @@
         <v>0.943769790225</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>0.6944145457495349</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6370,7 +6370,7 @@
         <v>0.984350812341</v>
       </c>
       <c r="K184">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6384,7 +6384,7 @@
         <v>0.00925295158734</v>
       </c>
       <c r="K185">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6419,7 +6419,7 @@
         <v>0.41178274998</v>
       </c>
       <c r="K186">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6454,7 +6454,7 @@
         <v>3.32262785742</v>
       </c>
       <c r="K187">
-        <v>0.6169946598418288</v>
+        <v>0.6115568626528388</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6468,7 +6468,7 @@
         <v>0.647948674261</v>
       </c>
       <c r="K188">
-        <v>0.6077630766312626</v>
+        <v>0.6160266285035642</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6503,7 +6503,7 @@
         <v>1.76050687394</v>
       </c>
       <c r="K189">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6538,7 +6538,7 @@
         <v>0.533045868314</v>
       </c>
       <c r="K190">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6573,7 +6573,7 @@
         <v>3.7123074504</v>
       </c>
       <c r="K191">
-        <v>0.4054102603268776</v>
+        <v>0.3294453092398914</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6587,7 +6587,7 @@
         <v>0.519470000458</v>
       </c>
       <c r="K192">
-        <v>0.09426801567446715</v>
+        <v>0.1536653397611575</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6622,7 +6622,7 @@
         <v>0.171330868655</v>
       </c>
       <c r="K193">
-        <v>0.09426801567446715</v>
+        <v>0.1536653397611575</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -6657,7 +6657,7 @@
         <v>2.79462365012</v>
       </c>
       <c r="K194">
-        <v>0.1224970713135077</v>
+        <v>0.1440296279842337</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -6692,7 +6692,7 @@
         <v>0.383017014015</v>
       </c>
       <c r="K195">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -6727,7 +6727,7 @@
         <v>0.297735002596</v>
       </c>
       <c r="K196">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -6762,7 +6762,7 @@
         <v>1.27101600133</v>
       </c>
       <c r="K197">
-        <v>0.1038192433841995</v>
+        <v>0.08904045924676637</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -6794,7 +6794,7 @@
         <v>0.5272928934059999</v>
       </c>
       <c r="K198">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -6826,7 +6826,7 @@
         <v>0.0705567724268</v>
       </c>
       <c r="K199">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -6840,7 +6840,7 @@
         <v>0.348999537857</v>
       </c>
       <c r="K200">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -6875,7 +6875,7 @@
         <v>0.721413891569</v>
       </c>
       <c r="K201">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -6907,7 +6907,7 @@
         <v>0.04419467361480001</v>
       </c>
       <c r="K202">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -6921,7 +6921,7 @@
         <v>0.687645466714</v>
       </c>
       <c r="K203">
-        <v>0.1661268236100087</v>
+        <v>0.1610655612286287</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -6953,7 +6953,7 @@
         <v>0.496136481085</v>
       </c>
       <c r="K204">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -6967,7 +6967,7 @@
         <v>1.57035827628</v>
       </c>
       <c r="K205">
-        <v>0.1507261269525486</v>
+        <v>0.13439391620731</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7002,7 +7002,7 @@
         <v>0.988333601939</v>
       </c>
       <c r="K206">
-        <v>0.1661268236100087</v>
+        <v>0.1610655612286287</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7037,7 +7037,7 @@
         <v>0.271002314159</v>
       </c>
       <c r="K207">
-        <v>0.1219627653061661</v>
+        <v>0.1402560422089814</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7069,7 +7069,7 @@
         <v>0.689871502875</v>
       </c>
       <c r="K208">
-        <v>0.2102908819138516</v>
+        <v>0.1818750802482761</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7104,7 +7104,7 @@
         <v>0.447534656495</v>
       </c>
       <c r="K209">
-        <v>0.2102908819138516</v>
+        <v>0.1818750802482761</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7118,7 +7118,7 @@
         <v>2.27447118666</v>
       </c>
       <c r="K210">
-        <v>0.1507261269525486</v>
+        <v>0.13439391620731</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7153,7 +7153,7 @@
         <v>0.218698274703</v>
       </c>
       <c r="K211">
-        <v>0.1661268236100087</v>
+        <v>0.1610655612286287</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7188,7 +7188,7 @@
         <v>4.05451136973</v>
       </c>
       <c r="K212">
-        <v>0.1461476681901857</v>
+        <v>0.1155353065621731</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7223,7 +7223,7 @@
         <v>3.95118226927</v>
       </c>
       <c r="K213">
-        <v>0.1461476681901857</v>
+        <v>0.1155353065621731</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7258,7 +7258,7 @@
         <v>0.378145532272</v>
       </c>
       <c r="K214">
-        <v>0.2102908819138516</v>
+        <v>0.1818750802482761</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7269,7 +7269,7 @@
         <v>0.000224811466952</v>
       </c>
       <c r="K215">
-        <v>0.2102908819138516</v>
+        <v>0.1818750802482761</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7304,7 +7304,7 @@
         <v>0.7097112153020001</v>
       </c>
       <c r="K216">
-        <v>0.2102908819138516</v>
+        <v>0.1818750802482761</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7318,7 +7318,7 @@
         <v>0.5627273515219999</v>
       </c>
       <c r="K217">
-        <v>0.1507261269525486</v>
+        <v>0.13439391620731</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7332,7 +7332,7 @@
         <v>0.149193763884</v>
       </c>
       <c r="K218">
-        <v>0.1507261269525486</v>
+        <v>0.13439391620731</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7346,7 +7346,7 @@
         <v>0.03907718274519999</v>
       </c>
       <c r="K219">
-        <v>0.1507261269525486</v>
+        <v>0.13439391620731</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7360,7 +7360,7 @@
         <v>0.615303986547</v>
       </c>
       <c r="K220">
-        <v>0.1507261269525486</v>
+        <v>0.13439391620731</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7395,7 +7395,7 @@
         <v>2.48502529769</v>
       </c>
       <c r="K221">
-        <v>0.1228913719796605</v>
+        <v>0.1571410785784039</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7427,7 +7427,7 @@
         <v>0.312251451873</v>
       </c>
       <c r="K222">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7462,7 +7462,7 @@
         <v>1.12090832684</v>
       </c>
       <c r="K223">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7497,7 +7497,7 @@
         <v>0.512023039593</v>
       </c>
       <c r="K224">
-        <v>0.08200445446651954</v>
+        <v>0.04919553287607024</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7532,7 +7532,7 @@
         <v>2.06764922619</v>
       </c>
       <c r="K225">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7567,7 +7567,7 @@
         <v>1.71122010574</v>
       </c>
       <c r="K226">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7602,7 +7602,7 @@
         <v>1.10198197791</v>
       </c>
       <c r="K227">
-        <v>0.08200445446651954</v>
+        <v>0.04919553287607024</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -7637,7 +7637,7 @@
         <v>0.5257953499419999</v>
       </c>
       <c r="K228">
-        <v>0.08200445446651954</v>
+        <v>0.04919553287607024</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7672,7 +7672,7 @@
         <v>6.464409658080001</v>
       </c>
       <c r="K229">
-        <v>0.1096394010782875</v>
+        <v>0.178227565705122</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -7707,7 +7707,7 @@
         <v>0.9935232473810001</v>
       </c>
       <c r="K230">
-        <v>0.08200445446651954</v>
+        <v>0.04919553287607024</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -7742,7 +7742,7 @@
         <v>2.21543874274</v>
       </c>
       <c r="K231">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -7777,7 +7777,7 @@
         <v>1.2773780581</v>
       </c>
       <c r="K232">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -7812,7 +7812,7 @@
         <v>0.358551262988</v>
       </c>
       <c r="K233">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -7847,7 +7847,7 @@
         <v>0.354411808683</v>
       </c>
       <c r="K234">
-        <v>0.0950566170067723</v>
+        <v>0.179888240949498</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -7882,7 +7882,7 @@
         <v>1.19434128759</v>
       </c>
       <c r="K235">
-        <v>0.1161654823484139</v>
+        <v>0.2435739197418359</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -7917,7 +7917,7 @@
         <v>1.08171716611</v>
       </c>
       <c r="K236">
-        <v>0.1161654823484139</v>
+        <v>0.2435739197418359</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -7931,7 +7931,7 @@
         <v>0.167172832711</v>
       </c>
       <c r="K237">
-        <v>0.1161654823484139</v>
+        <v>0.2435739197418359</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -7966,7 +7966,7 @@
         <v>3.11530441674</v>
       </c>
       <c r="K238">
-        <v>0.1161654823484139</v>
+        <v>0.2435739197418359</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8001,7 +8001,7 @@
         <v>1.00908245005</v>
       </c>
       <c r="K239">
-        <v>0.1372743476900555</v>
+        <v>0.3072595985341738</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8036,7 +8036,7 @@
         <v>1.2819778439</v>
       </c>
       <c r="K240">
-        <v>0.1372743476900555</v>
+        <v>0.3072595985341738</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8071,7 +8071,7 @@
         <v>2.09427665471</v>
       </c>
       <c r="K241">
-        <v>0.1372743476900555</v>
+        <v>0.3072595985341738</v>
       </c>
     </row>
   </sheetData>
